--- a/南山镇芒海小学幼儿园保教费.xlsx
+++ b/南山镇芒海小学幼儿园保教费.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED37038-6401-480E-A733-72E2269377C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C863083-760F-4F0E-92E2-EA812D18F6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,31 +246,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +577,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -593,19 +590,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -630,72 +627,72 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>10250</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -705,7 +702,7 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <f>SUM(D4:D8)</f>
         <v>50250</v>
       </c>
